--- a/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки доп. соглашений в DirectumRX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImportUtil\Core\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Приложения" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Доп.Соглашения" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приложения!$A$1:$V$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приложения!$A$1:$R$7</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Содержание</t>
   </si>
@@ -104,15 +104,6 @@
     <t>Дата доп. соглашения</t>
   </si>
   <si>
-    <t>Дополнительное соглашение</t>
-  </si>
-  <si>
-    <t>Диагностика 1</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -134,22 +125,19 @@
     <t>Файл</t>
   </si>
   <si>
-    <t>Служба генерального директора</t>
-  </si>
-  <si>
-    <t>C:\Users\starkov_vv\Desktop\DocumentBody\Доп.docx</t>
-  </si>
-  <si>
-    <t>НОР</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>Дата регистрации</t>
+  </si>
+  <si>
+    <t>Рег. №</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -208,12 +196,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -221,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,15 +284,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -314,10 +298,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -360,21 +340,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -400,40 +365,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -789,246 +775,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="33"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-    </row>
-    <row r="3" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="33"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-    </row>
-    <row r="4" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="33"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-    </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="33"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="33"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="L7" s="11"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:V7"/>
+  <autoFilter ref="A1:R7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1050,79 +989,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>7</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>14</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1134,288 +1073,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="2"/>
+      <c r="U2"/>
+      <c r="V2"/>
       <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="2"/>
+      <c r="U3"/>
+      <c r="V3"/>
       <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="2"/>
+      <c r="U4"/>
+      <c r="V4"/>
       <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="L7" s="9"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T9" s="34"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T10" s="34"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T12" s="34"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T13" s="34"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T14" s="34"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T15" s="34"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+    </row>
+    <row r="17" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+    </row>
+    <row r="18" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+    </row>
+    <row r="19" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+    </row>
+    <row r="20" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+    </row>
+    <row r="21" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="T21" s="36"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+    </row>
+    <row r="22" spans="20:26" x14ac:dyDescent="0.2">
+      <c r="T22" s="36"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>